--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,268 +73,256 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>old</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>highly</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +776,13 @@
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,13 +826,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3773584905660378</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8452012383900929</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>546</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.310077519379845</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2323232323232323</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
@@ -1064,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2051282051282051</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1243243243243243</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1152,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1178,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1204,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1230,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6571428571428571</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1256,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.65625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1282,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6380417335473515</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>451</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1320,13 +1308,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1346,13 +1334,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1372,13 +1360,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1398,13 +1386,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5964912280701754</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1424,13 +1412,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5588235294117647</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1450,13 +1438,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5571428571428572</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1476,13 +1464,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1502,13 +1490,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5389221556886228</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1528,13 +1516,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5288461538461539</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1554,13 +1542,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5277777777777778</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1580,13 +1568,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5213675213675214</v>
+        <v>0.484375</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1606,13 +1594,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.481203007518797</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1632,13 +1620,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4761904761904762</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1658,13 +1646,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1676,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1684,13 +1672,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1710,13 +1698,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1736,13 +1724,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4337349397590362</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1762,13 +1750,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4216867469879518</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1788,13 +1776,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4081632653061225</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1814,13 +1802,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1840,13 +1828,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.382716049382716</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1858,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1866,13 +1854,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.360655737704918</v>
+        <v>0.36</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1892,13 +1880,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3480392156862745</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L39">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M39">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1918,13 +1906,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3387096774193548</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1944,13 +1932,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3346303501945525</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L41">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1962,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1970,13 +1958,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3153153153153153</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1988,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1996,7 +1984,7 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3137254901960784</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L43">
         <v>16</v>
@@ -2014,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2022,13 +2010,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.299039780521262</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L44">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2037,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>511</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2048,13 +2036,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2932330827067669</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2074,13 +2062,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2870813397129187</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2092,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2100,13 +2088,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2794117647058824</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2118,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2126,13 +2114,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2685185185185185</v>
+        <v>0.2917808219178082</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2144,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>79</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2152,13 +2140,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2678571428571428</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2170,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2178,13 +2166,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2615715823466093</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L50">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2196,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>686</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2204,13 +2192,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2589928057553957</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2222,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2230,13 +2218,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.25</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2248,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>63</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2256,13 +2244,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2274,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2282,13 +2270,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2475247524752475</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2300,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2308,13 +2296,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2380952380952381</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2326,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2334,13 +2322,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2222222222222222</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2352,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2360,25 +2348,25 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.2214765100671141</v>
+        <v>0.1920614596670935</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>116</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2386,13 +2374,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.209271523178808</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L58">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2404,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>597</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2412,13 +2400,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1974921630094044</v>
+        <v>0.1801324503311258</v>
       </c>
       <c r="L59">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="M59">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2430,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>256</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2438,13 +2426,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1926605504587156</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2456,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2464,13 +2452,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1920529801324503</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2482,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2490,13 +2478,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1904761904761905</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2508,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2516,13 +2504,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1892583120204604</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L63">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2534,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>634</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2542,13 +2530,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.180327868852459</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2560,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>100</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2568,13 +2556,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1801801801801802</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2586,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2594,13 +2582,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1630434782608696</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2612,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>77</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2620,25 +2608,25 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1515151515151515</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>84</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2646,13 +2634,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1452991452991453</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2664,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2672,13 +2660,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1411192214111922</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L69">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2690,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>353</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2698,25 +2686,25 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1405405405405405</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L70">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>318</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2724,13 +2712,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1359649122807018</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L71">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2742,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>394</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2750,13 +2738,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.134453781512605</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L72">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2768,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2776,13 +2764,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1242937853107345</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2794,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>155</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2802,13 +2790,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1219512195121951</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2820,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>144</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2828,13 +2816,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1168384879725086</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2846,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>257</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2854,13 +2842,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1159090909090909</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L76">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M76">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2872,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2880,13 +2868,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1151515151515152</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2898,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2906,25 +2894,25 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.103960396039604</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="L78">
         <v>21</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2932,25 +2920,25 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1033210332103321</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>243</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2958,13 +2946,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.09785202863961814</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L80">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2976,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>378</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2984,25 +2972,25 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.09202453987730061</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>148</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3010,7 +2998,7 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.08888888888888889</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L82">
         <v>24</v>
@@ -3028,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>246</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3036,13 +3024,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.08653846153846154</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3054,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>190</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3062,25 +3050,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.08464849354375897</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L84">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>638</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3088,25 +3076,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.06048387096774194</v>
+        <v>0.04805914972273567</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>233</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3114,25 +3102,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.05975723622782447</v>
+        <v>0.04325699745547074</v>
       </c>
       <c r="L86">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1007</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3140,25 +3128,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.0583756345177665</v>
+        <v>0.04069264069264069</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M87">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>371</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3166,13 +3154,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.0546448087431694</v>
+        <v>0.03639846743295019</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3184,111 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K89">
-        <v>0.04243542435424354</v>
-      </c>
-      <c r="L89">
-        <v>23</v>
-      </c>
-      <c r="M89">
-        <v>23</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K90">
-        <v>0.03982683982683983</v>
-      </c>
-      <c r="L90">
-        <v>46</v>
-      </c>
-      <c r="M90">
-        <v>48</v>
-      </c>
-      <c r="N90">
-        <v>0.96</v>
-      </c>
-      <c r="O90">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K91">
-        <v>0.03838771593090211</v>
-      </c>
-      <c r="L91">
-        <v>20</v>
-      </c>
-      <c r="M91">
-        <v>21</v>
-      </c>
-      <c r="N91">
-        <v>0.95</v>
-      </c>
-      <c r="O91">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92">
-        <v>0.02356020942408377</v>
-      </c>
-      <c r="L92">
-        <v>18</v>
-      </c>
-      <c r="M92">
-        <v>21</v>
-      </c>
-      <c r="N92">
-        <v>0.86</v>
-      </c>
-      <c r="O92">
-        <v>0.14</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>746</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
